--- a/documents/osmosi_report.xlsx
+++ b/documents/osmosi_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnel/Desktop/Report-h2o/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D402A5-4435-794C-A62F-4C34E1647E9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1F1BB-DD8B-024D-AF7E-6A8B1AD3420F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{9222E024-7C19-224E-9878-B14DC4A55092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Gennaio</t>
   </si>
@@ -59,6 +59,42 @@
   </si>
   <si>
     <t>Febbraio</t>
+  </si>
+  <si>
+    <t>Membrane</t>
+  </si>
+  <si>
+    <t>II Stadio</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Aprile</t>
+  </si>
+  <si>
+    <t>Maggio</t>
+  </si>
+  <si>
+    <t>Giugno</t>
+  </si>
+  <si>
+    <t>Luglio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Settembre</t>
+  </si>
+  <si>
+    <t>Ottobre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Dicembre</t>
   </si>
 </sst>
 </file>
@@ -69,10 +105,24 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-410]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,30 +148,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -174,20 +240,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B67B2B4-F993-3341-AEDA-6BE3FE97A944}" name="Tabella13" displayName="Tabella13" ref="A1:H5" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="A1:H5" xr:uid="{561EF200-8A82-6A40-8ED8-86766C2C9953}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{705C4672-2301-0B4A-B518-31CD4B94D44F}" name="Data Inizio" totalsRowLabel="Totale" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{937A4ADF-B3C0-D740-9900-E05E05C3C8AB}" name="MC Inizio" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B67B2B4-F993-3341-AEDA-6BE3FE97A944}" name="Tabella13" displayName="Tabella13" ref="A1:I21" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+  <autoFilter ref="A1:I21" xr:uid="{561EF200-8A82-6A40-8ED8-86766C2C9953}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{705C4672-2301-0B4A-B518-31CD4B94D44F}" name="Data Inizio" totalsRowLabel="Totale" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{937A4ADF-B3C0-D740-9900-E05E05C3C8AB}" name="MC Inizio" dataDxfId="7">
       <calculatedColumnFormula>D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7D68EC87-E64B-FF43-8B77-2E00664A9B5C}" name="Data Fine" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B28BF623-59B7-904F-8F36-FF886487A09F}" name="MC Fine" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{35EDCC47-ADFE-C742-BCDB-B69471CF137A}" name="Totale MC" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{7D68EC87-E64B-FF43-8B77-2E00664A9B5C}" name="Data Fine" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B28BF623-59B7-904F-8F36-FF886487A09F}" name="MC Fine" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{35EDCC47-ADFE-C742-BCDB-B69471CF137A}" name="Totale MC" dataDxfId="4">
       <calculatedColumnFormula>D2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0AEE0271-391F-8B44-827D-29983C6FE6D9}" name="Mese" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7268E428-CD37-0848-B333-E710CBE17DD6}" name="Lavaggio" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0AEE0271-391F-8B44-827D-29983C6FE6D9}" name="Mese" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7268E428-CD37-0848-B333-E710CBE17DD6}" name="Lavaggio" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4940718C-9F8E-B541-8C7D-28705BA62204}" name="Membrane" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{2A1B6C22-6D0A-C545-BDAF-34BBCC5F0FA0}" name="Anno" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>YEAR(C2)</calculatedColumnFormula>
     </tableColumn>
@@ -493,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D871271-9D94-3F4C-8C56-960CFEF572E8}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,122 +591,625 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45659</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2321234</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1741527</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45322</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1767898</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E13" si="0">D2-B2</f>
+        <v>26371</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I13" si="1">YEAR(C2)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>45323</v>
+      </c>
+      <c r="B3" s="8">
+        <f>D2</f>
+        <v>1767898</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45350</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1796449</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>28551</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B14" si="2">D3</f>
+        <v>1796449</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45382</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1814752</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>18303</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="2"/>
+        <v>1814752</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45412</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1835755</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>21003</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="2"/>
+        <v>1835755</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45443</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1858474</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>22719</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>45444</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="2"/>
+        <v>1858474</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45473</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1880040</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>21566</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>45474</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="2"/>
+        <v>1880040</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45504</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1896367</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>16327</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>45505</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="2"/>
+        <v>1896367</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45535</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1910838</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>14471</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>45536</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="2"/>
+        <v>1910838</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45565</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1934221</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>23383</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>45566</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="2"/>
+        <v>1934221</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45596</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1956025</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>21804</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>45597</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="2"/>
+        <v>1956025</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45626</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1979230</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>23205</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>45627</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="2"/>
+        <v>1979230</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45657</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1994583</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>15353</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>1994583</v>
+      </c>
+      <c r="C14" s="2">
         <v>45688</v>
       </c>
-      <c r="D2" s="1">
-        <v>2432112</v>
-      </c>
-      <c r="E2" s="3">
-        <f>D2-B2</f>
-        <v>110878</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <f>YEAR(C2)</f>
+      <c r="D14" s="4">
+        <v>2022455</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14:E21" si="3">D14-B14</f>
+        <v>27872</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:I21" si="4">YEAR(C14)</f>
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>45689</v>
       </c>
-      <c r="B3" s="3">
-        <f>D2</f>
-        <v>2432112</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B15" s="3">
+        <f t="shared" ref="B15:B21" si="5">D14</f>
+        <v>2022455</v>
+      </c>
+      <c r="C15" s="2">
         <v>45716</v>
       </c>
-      <c r="D3" s="1">
-        <v>2602121</v>
-      </c>
-      <c r="E3" s="3">
-        <f>D3-B3</f>
-        <v>170009</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D15" s="4">
+        <v>2050543</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>28088</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
-        <f>YEAR(C3)</f>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>45717</v>
       </c>
-      <c r="B4" s="3">
-        <f>D3</f>
-        <v>2602121</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B16" s="3">
+        <f t="shared" si="5"/>
+        <v>2050543</v>
+      </c>
+      <c r="C16" s="2">
         <v>45747</v>
       </c>
-      <c r="D4" s="1">
-        <v>2756422</v>
-      </c>
-      <c r="E4" s="3">
-        <f>D4-B4</f>
-        <v>154301</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D16" s="4">
+        <v>2076683</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>26140</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <f>YEAR(C4)</f>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B5" s="3">
-        <f>D4</f>
-        <v>2756422</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45382</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2956423</v>
-      </c>
-      <c r="E5" s="3">
-        <f>D5-B5</f>
-        <v>200001</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <f>YEAR(C5)</f>
-        <v>2024</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="5"/>
+        <v>2076683</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45777</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2099826</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>23143</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="5"/>
+        <v>2099826</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2126230</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="3"/>
+        <v>26404</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="5"/>
+        <v>2126230</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2153550</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>27320</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="5"/>
+        <v>2153550</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45869</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2174744</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>21194</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="5"/>
+        <v>2174744</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45900</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2182256</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="3"/>
+        <v>7512</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="4"/>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
